--- a/ITERACION 5/SUB ITERACION 5/Formato Heumann.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/Formato Heumann.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
-    <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
-    <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
+    <sheet name="NombreCUS1" sheetId="1" r:id="rId1"/>
+    <sheet name="NombreCUS2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="37">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -81,9 +80,6 @@
     <t>Registro exitoso y mensaje de información mostrado</t>
   </si>
   <si>
-    <t>Set de valores</t>
-  </si>
-  <si>
     <t>V1</t>
   </si>
   <si>
@@ -118,13 +114,25 @@
   </si>
   <si>
     <t>El cliente satisfecho</t>
+  </si>
+  <si>
+    <t>Escenarios del CUS XXXXXX</t>
+  </si>
+  <si>
+    <t>CASOS DE PRUEBA</t>
+  </si>
+  <si>
+    <t>ID Set de valores</t>
+  </si>
+  <si>
+    <t>Juego de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +145,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,11 +196,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,6 +205,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,6 +224,126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2162175" y="28575"/>
+          <a:ext cx="2905125" cy="2430500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2867025" y="0"/>
+          <a:ext cx="2905125" cy="2430500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,417 +633,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A16:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A16:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>